--- a/Source/Test/Data/Test1.xlsx
+++ b/Source/Test/Data/Test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Excel.Report.PDF\Source\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014E4AE1-2FCF-4534-BC8E-1AD75E78F5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48BBDF2-AB07-4BF0-8E8B-A19510056870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="7665" windowWidth="40380" windowHeight="20445" xr2:uid="{CC6A1564-7E12-4F5A-9D58-9D0703265E2C}"/>
+    <workbookView xWindow="6225" yWindow="7410" windowWidth="18135" windowHeight="20445" xr2:uid="{CC6A1564-7E12-4F5A-9D58-9D0703265E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -410,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -419,6 +419,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -593,136 +606,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
         <color rgb="FFFF0000"/>
       </left>
       <right style="dotted">
         <color rgb="FFFF0000"/>
       </right>
-      <top style="thick">
+      <top style="dotted">
         <color rgb="FFFF0000"/>
       </top>
       <bottom style="dotted">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
         <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
@@ -797,328 +703,457 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="52" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="54" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="48" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="50" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="51" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="52" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="53" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="54" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1443,220 +1478,220 @@
   <dimension ref="B1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="59"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="60"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="60"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="61"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="62"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="63"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="57"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="64"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="70"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="11" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="71"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="40"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="4"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="39"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="45"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="40"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="4"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="40"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="40"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="4"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="40"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="40"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="40"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="46"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="45"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="46"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="76" t="s">
+      <c r="C23" s="67"/>
+      <c r="D23" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="80" t="s">
+      <c r="E23" s="71"/>
+      <c r="F23" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="81"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="74"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="83"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="77"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="88" t="s">
+      <c r="C25" s="79"/>
+      <c r="D25" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="89"/>
-      <c r="F25" s="92" t="s">
+      <c r="E25" s="83"/>
+      <c r="F25" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="93"/>
+      <c r="G25" s="87"/>
     </row>
     <row r="26" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="95"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="100" t="s">
+      <c r="C27" s="91"/>
+      <c r="D27" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="101"/>
-      <c r="F27" s="104" t="s">
+      <c r="E27" s="95"/>
+      <c r="F27" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="105"/>
+      <c r="G27" s="99"/>
     </row>
     <row r="28" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="98"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="107"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="9">
